--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE74E08-5718-4535-9E5E-23B615C941F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B76FA-865D-4DFE-99F2-845148C4AA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="216">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -713,10 +713,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>男主-奥义临时-造成120%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>瓦尔基里-临时奥义-每段造成120%伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -968,6 +964,71 @@
   </si>
   <si>
     <t>Fx_act_effect_latiao</t>
+  </si>
+  <si>
+    <t>扫把-技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增减益类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-增益
+1-减益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDebuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-被动召唤一组怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_summon_shockwave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectFx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法者的特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成100%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成120%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成160%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成220%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1189,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1302,37 +1363,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1349,7 +1412,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1747,6 +1812,53 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1873,37 +1985,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AD68" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="C1:AD68" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{F72E9219-C04E-4D74-AE14-621A011975FD}" name="特效飘字" dataDxfId="1"/>
-    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效2" dataDxfId="25"/>
-    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="24"/>
-    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧_x000a_仅普攻" dataDxfId="23"/>
-    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作_x000a_仅普攻" dataDxfId="22"/>
-    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间_x000a_仅普攻" dataDxfId="21"/>
-    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{DC8B6D94-8726-43D4-A029-E8E8A9A5C65C}" name="字符串参数" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{29BCF34F-66C2-415F-BAA8-645091FE392A}" name="Int类型参数" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="计算参数3" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="计算参数4" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="计算参数5" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="计算参数6" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="计算参数7" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{0FFF56E0-BE11-456F-A06F-A3C521BA9873}" name="number_x000a_类型参数" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{58BD44B6-A32F-499C-A4B8-B99C0810927F}" name="属性" dataDxfId="0"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发器类型" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_关系类型" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AF75" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="C1:AF75" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{F72E9219-C04E-4D74-AE14-621A011975FD}" name="特效飘字" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{1819B2AD-0CAC-46F2-A80D-9F19464EB667}" name="增减益类型" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{C20E5857-33E3-478C-B638-C78DCA78339D}" name="效果特效" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效2" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧_x000a_仅普攻" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作_x000a_仅普攻" dataDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间_x000a_仅普攻" dataDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DC8B6D94-8726-43D4-A029-E8E8A9A5C65C}" name="字符串参数" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{29BCF34F-66C2-415F-BAA8-645091FE392A}" name="Int类型参数" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="计算参数3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="计算参数4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="计算参数5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="计算参数6" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="计算参数7" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{0FFF56E0-BE11-456F-A06F-A3C521BA9873}" name="number_x000a_类型参数" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{58BD44B6-A32F-499C-A4B8-B99C0810927F}" name="属性" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发器类型" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_关系类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2172,13 +2286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="K49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2186,28 +2300,29 @@
     <col min="1" max="3" width="10.625" style="2"/>
     <col min="4" max="4" width="21.5" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.625" style="2"/>
-    <col min="14" max="14" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.625" style="2" customWidth="1"/>
-    <col min="17" max="21" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="10.625" style="2"/>
-    <col min="33" max="33" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.625" style="2"/>
+    <col min="6" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="13" width="15.625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="10.625" style="2"/>
+    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.625" style="2" customWidth="1"/>
+    <col min="19" max="23" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="10.625" style="2"/>
+    <col min="35" max="35" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2221,166 +2336,178 @@
         <v>32</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="31" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="Z2" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AE2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AF2" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2389,75 +2516,81 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="W3" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="X3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AB3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2466,116 +2599,120 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="28"/>
+      <c r="Y4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AF4" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="29"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2584,75 +2721,81 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>10</v>
+      <c r="M6" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="X6" s="14" t="s">
+      <c r="Y6" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AB6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AE6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AF6" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -2660,59 +2803,55 @@
         <v>77</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="3">
         <v>0.2</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="K7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>10000</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>200</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="str">
-        <f>Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7</f>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
       <c r="Z7" s="2">
         <v>0</v>
       </c>
@@ -2722,9 +2861,15 @@
       <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -2732,49 +2877,45 @@
         <v>33</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>10000</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>101</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>2</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>200</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="str">
-        <f t="shared" ref="V8:V66" si="0">Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8</f>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="str">
+        <f t="shared" ref="X8:X65" si="0">S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8</f>
         <v>2,200,0,0,0</v>
       </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
       <c r="Z8" s="2">
         <v>0</v>
       </c>
@@ -2784,9 +2925,15 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -2794,49 +2941,45 @@
         <v>34</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <v>10000</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>101</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>4.5</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>200</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.5,200,0,0,0</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
       <c r="Z9" s="2">
         <v>0</v>
       </c>
@@ -2846,9 +2989,15 @@
       <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -2856,49 +3005,45 @@
         <v>35</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <v>10000</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>101</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>3</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>200</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,200,0,0,0</v>
       </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
       <c r="Z10" s="2">
         <v>0</v>
       </c>
@@ -2908,9 +3053,15 @@
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>1007</v>
       </c>
@@ -2918,30 +3069,26 @@
         <v>36</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>10000</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>501</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>10001</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
       <c r="S11" s="2">
         <v>0</v>
       </c>
@@ -2951,28 +3098,34 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Z11" s="2">
         <v>1</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AA11" s="2">
         <v>0.1</v>
       </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
         <v>1</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AD11" s="2">
         <v>3</v>
       </c>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>1008</v>
       </c>
@@ -2980,30 +3133,26 @@
         <v>37</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>10000</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>501</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>10002</v>
       </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
       <c r="S12" s="2">
         <v>0</v>
       </c>
@@ -3013,28 +3162,34 @@
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Z12" s="2">
         <v>1</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AA12" s="2">
         <v>5</v>
       </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
         <v>1</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AD12" s="2">
         <v>1</v>
       </c>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>1009</v>
       </c>
@@ -3042,30 +3197,26 @@
         <v>43</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>10000</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>501</v>
       </c>
-      <c r="P13" s="18">
+      <c r="R13" s="18">
         <v>21003</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
@@ -3075,28 +3226,34 @@
       <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Z13" s="2">
         <v>2</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
       </c>
       <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
         <v>5</v>
       </c>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>1010</v>
       </c>
@@ -3104,61 +3261,63 @@
         <v>38</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <v>10000</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>201</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <v>1.5</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>200</v>
       </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5,200,0,0,0</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Z14" s="2">
         <v>1</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AA14" s="2">
         <v>5</v>
       </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
         <v>1</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AD14" s="2">
         <v>3</v>
       </c>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>1011</v>
       </c>
@@ -3166,63 +3325,65 @@
         <v>39</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <v>10000</v>
       </c>
-      <c r="N15" s="10">
+      <c r="P15" s="10">
         <v>203</v>
       </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
         <v>0.1</v>
       </c>
-      <c r="R15" s="10">
+      <c r="T15" s="10">
         <v>200</v>
       </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0</v>
-      </c>
       <c r="U15" s="10">
         <v>0</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.1,200,0,0,0</v>
       </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10">
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10">
         <v>1</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="AA15" s="10">
         <v>5</v>
       </c>
-      <c r="Z15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
         <v>1</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AD15" s="10">
         <v>3</v>
       </c>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="11"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>1012</v>
       </c>
@@ -3230,63 +3391,65 @@
         <v>40</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>10000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>204</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>0.3</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>200</v>
       </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.3,200,0,0,0</v>
       </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10">
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10">
         <v>1</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="AA16" s="10">
         <v>5</v>
       </c>
-      <c r="Z16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
         <v>1</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AD16" s="10">
         <v>3</v>
       </c>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>1013</v>
       </c>
@@ -3294,57 +3457,59 @@
         <v>81</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="H17" s="20"/>
+      <c r="I17" s="3"/>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <v>10000</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>202</v>
       </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <v>3</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>500</v>
       </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,500,0,0,0</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Z17" s="2">
         <v>1</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AA17" s="2">
         <v>5</v>
       </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
         <v>1</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AD17" s="2">
         <v>3</v>
       </c>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>1015</v>
       </c>
@@ -3352,50 +3517,46 @@
         <v>41</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <v>10000</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>321</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <v>0.35</v>
       </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0</v>
-      </c>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="10">
         <v>0</v>
       </c>
@@ -3405,10 +3566,16 @@
       <c r="AB18" s="10">
         <v>0</v>
       </c>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>1016</v>
       </c>
@@ -3416,27 +3583,23 @@
         <v>42</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>10000</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>401</v>
       </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
@@ -3449,16 +3612,16 @@
       <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
       <c r="Z19" s="2">
         <v>0</v>
       </c>
@@ -3468,9 +3631,15 @@
       <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="12">
         <v>100111</v>
       </c>
@@ -3478,59 +3647,55 @@
         <v>66</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J20" s="3">
         <v>0.2</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="K20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>10000</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>101</v>
       </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>200</v>
       </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
       <c r="Z20" s="2">
         <v>0</v>
       </c>
@@ -3540,9 +3705,15 @@
       <c r="AB20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>100112</v>
       </c>
@@ -3550,51 +3721,49 @@
         <v>123</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
         <v>10000</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>301</v>
       </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
         <v>0.5</v>
       </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
       <c r="Z21" s="2">
         <v>0</v>
       </c>
@@ -3604,9 +3773,15 @@
       <c r="AB21" s="2">
         <v>0</v>
       </c>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="12">
         <v>100201</v>
       </c>
@@ -3614,26 +3789,22 @@
         <v>124</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="H22" s="20"/>
+      <c r="I22" s="3"/>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>10000</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>501</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>100201</v>
       </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
       <c r="S22" s="2">
         <v>0</v>
       </c>
@@ -3643,16 +3814,16 @@
       <c r="U22" s="2">
         <v>0</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
       <c r="Z22" s="2">
         <v>0</v>
       </c>
@@ -3662,9 +3833,15 @@
       <c r="AB22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>100301</v>
       </c>
@@ -3672,58 +3849,54 @@
         <v>126</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="J23" s="2">
         <v>0.2</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>10000</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>101</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>1</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>2</v>
       </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2,0,0,0,0</v>
       </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
       <c r="Z23" s="2">
         <v>0</v>
       </c>
@@ -3733,9 +3906,15 @@
       <c r="AB23" s="2">
         <v>0</v>
       </c>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="12">
         <v>100302</v>
       </c>
@@ -3743,45 +3922,41 @@
         <v>125</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="H24" s="20"/>
+      <c r="I24" s="3"/>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>10000</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>601</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>100302</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>45</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>1</v>
       </c>
-      <c r="S24" s="2">
+      <c r="U24" s="2">
         <v>1.5</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2" t="str">
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>45,1,1.5,0,0</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
       <c r="Z24" s="2">
         <v>0</v>
       </c>
@@ -3791,126 +3966,130 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>1003021</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>159</v>
+      <c r="F25" s="3"/>
+      <c r="G25" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="J25" s="2">
         <v>0.2</v>
       </c>
+      <c r="K25" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <v>10000</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>102</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="22"/>
+      <c r="R25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>100</v>
       </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,100,0,0,0</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Z25" s="2">
         <v>2</v>
       </c>
-      <c r="Y25" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
       <c r="AA25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
         <v>1</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AD25" s="2">
         <v>5</v>
       </c>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="12">
         <v>100401</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="H26" s="20"/>
+      <c r="I26" s="3"/>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>10000</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>101</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>1</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="2">
         <v>1.2</v>
       </c>
-      <c r="R26" s="2">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
       <c r="Z26" s="2">
         <v>0</v>
       </c>
@@ -3920,9 +4099,15 @@
       <c r="AB26" s="2">
         <v>0</v>
       </c>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4"/>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>100402</v>
       </c>
@@ -3930,26 +4115,22 @@
         <v>127</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="H27" s="20"/>
+      <c r="I27" s="3"/>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>10000</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>501</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>100402</v>
       </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
@@ -3959,90 +4140,98 @@
       <c r="U27" s="2">
         <v>0</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Z27" s="2">
         <v>1</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AA27" s="2">
         <v>0.2</v>
       </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
         <v>1</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AD27" s="2">
         <v>6</v>
       </c>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF27" s="4"/>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="12">
         <v>1004021</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="I28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <v>10000</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
         <v>201</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>3</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="2">
         <v>0.03</v>
       </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03,0,0,0,0</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Z28" s="2">
         <v>1</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AA28" s="2">
         <v>0.2</v>
       </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
         <v>1</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AD28" s="2">
         <v>6</v>
       </c>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>200111</v>
       </c>
@@ -4050,59 +4239,55 @@
         <v>131</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J29" s="3">
         <v>0.2</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="K29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <v>10000</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
         <v>101</v>
       </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
         <v>0.4</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <v>80</v>
       </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.4,80,0,0,0</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
       <c r="Z29" s="2">
         <v>0</v>
       </c>
@@ -4112,9 +4297,15 @@
       <c r="AB29" s="2">
         <v>0</v>
       </c>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="12">
         <v>200121</v>
       </c>
@@ -4122,59 +4313,55 @@
         <v>132</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J30" s="3">
         <v>0.2</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="K30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
         <v>10000</v>
       </c>
-      <c r="N30" s="2">
+      <c r="P30" s="2">
         <v>101</v>
       </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
         <v>0.6</v>
       </c>
-      <c r="R30" s="2">
+      <c r="T30" s="2">
         <v>120</v>
       </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.6,120,0,0,0</v>
       </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
       <c r="Z30" s="2">
         <v>0</v>
       </c>
@@ -4184,9 +4371,15 @@
       <c r="AB30" s="2">
         <v>0</v>
       </c>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>200201</v>
       </c>
@@ -4194,45 +4387,41 @@
         <v>78</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="H31" s="20"/>
+      <c r="I31" s="3"/>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
         <v>10000</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
         <v>101</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>3</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2">
         <v>0.9</v>
       </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.9,0,0,0,0</v>
       </c>
-      <c r="X31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
       <c r="Z31" s="2">
         <v>0</v>
       </c>
@@ -4242,9 +4431,15 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="12">
         <v>200202</v>
       </c>
@@ -4252,45 +4447,41 @@
         <v>78</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="H32" s="20"/>
+      <c r="I32" s="3"/>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
         <v>10000</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
         <v>101</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>3</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>0.9</v>
       </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
-      <c r="V32" s="2" t="str">
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.9,0,0,0,0</v>
       </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
       <c r="Z32" s="2">
         <v>0</v>
       </c>
@@ -4300,9 +4491,15 @@
       <c r="AB32" s="2">
         <v>0</v>
       </c>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>200203</v>
       </c>
@@ -4310,45 +4507,41 @@
         <v>79</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="H33" s="20"/>
+      <c r="I33" s="3"/>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
         <v>10000</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
         <v>101</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>3</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="2">
         <v>1.2</v>
       </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="2" t="str">
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
       <c r="Z33" s="2">
         <v>0</v>
       </c>
@@ -4358,9 +4551,15 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="12">
         <v>200301</v>
       </c>
@@ -4368,45 +4567,41 @@
         <v>80</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="H34" s="20"/>
+      <c r="I34" s="3"/>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>10000</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>101</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>3</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>0.8</v>
       </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
       <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="2" t="str">
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="X34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
       <c r="Z34" s="2">
         <v>0</v>
       </c>
@@ -4416,9 +4611,15 @@
       <c r="AB34" s="2">
         <v>0</v>
       </c>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="4"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="12">
         <v>200302</v>
       </c>
@@ -4426,26 +4627,22 @@
         <v>133</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="H35" s="20"/>
+      <c r="I35" s="3"/>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
         <v>10000</v>
       </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
         <v>501</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>200302</v>
       </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
       <c r="S35" s="2">
         <v>0</v>
       </c>
@@ -4455,28 +4652,34 @@
       <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="V35" s="2" t="str">
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Z35" s="2">
         <v>1</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AA35" s="2">
         <v>0.2</v>
       </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
         <v>1</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AD35" s="2">
         <v>6</v>
       </c>
-      <c r="AD35" s="4"/>
-    </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C36" s="12">
         <v>2003021</v>
       </c>
@@ -4484,846 +4687,823 @@
         <v>134</v>
       </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="J36" s="2">
         <v>0.2</v>
       </c>
+      <c r="K36" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
         <v>10000</v>
       </c>
-      <c r="N36" s="2">
+      <c r="P36" s="2">
         <v>101</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>200</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z36" s="2">
         <v>2</v>
       </c>
-      <c r="R36" s="2">
-        <v>200</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2,200,0,0,0</v>
-      </c>
-      <c r="X36" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="2">
+      <c r="AA36" s="2">
         <v>5</v>
       </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
         <v>1</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AD36" s="2">
         <v>5</v>
       </c>
-      <c r="AD36" s="4"/>
-    </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="12">
         <v>200501</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="H37" s="20"/>
+      <c r="I37" s="3"/>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>10000</v>
       </c>
-      <c r="N37" s="2">
+      <c r="P37" s="2">
         <v>101</v>
       </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2">
         <v>3</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,0,0,0,0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C38" s="12">
+        <v>200502</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P38" s="2">
+        <v>101</v>
+      </c>
+      <c r="R38" s="2">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2">
         <v>1.2</v>
       </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2" t="str">
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="4"/>
-    </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C38" s="12">
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4"/>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C39" s="12">
+        <v>200503</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P39" s="2">
+        <v>101</v>
+      </c>
+      <c r="R39" s="2">
+        <v>3</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.6,0,0,0,0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="4"/>
+    </row>
+    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C40" s="12">
+        <v>200504</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P40" s="2">
+        <v>101</v>
+      </c>
+      <c r="R40" s="2">
+        <v>3</v>
+      </c>
+      <c r="S40" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2,0,0,0,0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="4"/>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C41" s="12">
+        <v>200505</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="3"/>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P41" s="2">
+        <v>501</v>
+      </c>
+      <c r="R41" s="2">
         <v>200502</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="3"/>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N38" s="2">
-        <v>501</v>
-      </c>
-      <c r="P38" s="2">
-        <v>200502</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2" t="str">
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="4"/>
-    </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C39" s="12">
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="4"/>
+    </row>
+    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C42" s="12">
         <v>300101</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J42" s="2">
         <v>0.2</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L42" s="2">
         <v>0.2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M42" s="2">
         <v>1</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
         <v>10000</v>
       </c>
-      <c r="N39" s="2">
+      <c r="P42" s="2">
         <v>101</v>
       </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
         <v>1</v>
       </c>
-      <c r="R39" s="2">
+      <c r="T42" s="2">
         <v>200</v>
       </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2" t="s">
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="4"/>
-    </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C40" s="3">
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
         <v>300111</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20" t="s">
+      <c r="E43" s="20"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="3">
+      <c r="J43" s="3">
         <v>0.2</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L43" s="3">
         <v>0.2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M43" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
         <v>10000</v>
       </c>
-      <c r="N40" s="2">
+      <c r="P43" s="2">
         <v>101</v>
       </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
         <v>1</v>
       </c>
-      <c r="R40" s="2">
+      <c r="T43" s="2">
         <v>200</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2" t="str">
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="4"/>
-    </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C41" s="12">
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C44" s="12">
         <v>300201</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="3"/>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="E44" s="20"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="3"/>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
         <v>10000</v>
       </c>
-      <c r="N41" s="2">
+      <c r="P44" s="2">
         <v>101</v>
       </c>
-      <c r="P41" s="2">
+      <c r="R44" s="2">
         <v>7</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S44" s="2">
         <v>0.8</v>
       </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2" t="str">
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="4"/>
-    </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C42" s="12">
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="4"/>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C45" s="12">
         <v>300301</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="3"/>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="E45" s="20"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="3"/>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
         <v>10000</v>
       </c>
-      <c r="N42" s="2">
+      <c r="P45" s="2">
         <v>101</v>
       </c>
-      <c r="P42" s="2">
+      <c r="R45" s="2">
         <v>7</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S45" s="2">
         <v>1.5</v>
       </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2" t="str">
-        <f t="shared" ref="V42:V43" si="1">Q42&amp;","&amp;R42&amp;","&amp;S42&amp;","&amp;T42&amp;","&amp;U42</f>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2" t="str">
+        <f t="shared" ref="X45:X46" si="1">S45&amp;","&amp;T45&amp;","&amp;U45&amp;","&amp;V45&amp;","&amp;W45</f>
         <v>1.5,0,0,0,0</v>
       </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="4"/>
-    </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C43" s="12">
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="4"/>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C46" s="12">
         <v>300302</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="D46" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
         <v>10000</v>
       </c>
-      <c r="N43" s="2">
+      <c r="P46" s="2">
         <v>401</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2" t="str">
+      <c r="Q46" s="22"/>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.5,0,0,0,0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="4"/>
-    </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C44" s="12">
+        <v>0.2,0,0,0,0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C47" s="12">
         <v>300501</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="3"/>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="D47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="3"/>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
         <v>10000</v>
       </c>
-      <c r="N44" s="2">
+      <c r="P47" s="2">
         <v>101</v>
       </c>
-      <c r="P44" s="2">
+      <c r="R47" s="2">
         <v>7</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S47" s="2">
         <v>3.6</v>
       </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2" t="str">
-        <f t="shared" ref="V44" si="2">Q44&amp;","&amp;R44&amp;","&amp;S44&amp;","&amp;T44&amp;","&amp;U44</f>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2" t="str">
+        <f t="shared" ref="X47" si="2">S47&amp;","&amp;T47&amp;","&amp;U47&amp;","&amp;V47&amp;","&amp;W47</f>
         <v>3.6,0,0,0,0</v>
       </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="4"/>
-    </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C45" s="3">
-        <v>400111</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="4"/>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C48" s="12">
+        <v>800101</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J48" s="3">
         <v>0.2</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L48" s="3">
         <v>0.2</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="M48" s="3"/>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
         <v>10000</v>
       </c>
-      <c r="N45" s="2">
+      <c r="P48" s="2">
         <v>101</v>
       </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
         <v>1</v>
       </c>
-      <c r="R45" s="2">
+      <c r="T48" s="2">
         <v>200</v>
       </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2" t="str">
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="4"/>
-    </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C46" s="3">
-        <v>500111</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N46" s="2">
-        <v>101</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>1</v>
-      </c>
-      <c r="R46" s="2">
-        <v>200</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="4"/>
-    </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C47" s="3">
-        <v>600111</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N47" s="2">
-        <v>101</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>1</v>
-      </c>
-      <c r="R47" s="2">
-        <v>200</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="4"/>
-    </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C48" s="12">
-        <v>800101</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N48" s="2">
-        <v>101</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>1</v>
-      </c>
-      <c r="R48" s="2">
-        <v>200</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
       <c r="Z48" s="2">
         <v>0</v>
       </c>
@@ -5333,9 +5513,15 @@
       <c r="AB48" s="2">
         <v>0</v>
       </c>
-      <c r="AD48" s="4"/>
-    </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="4"/>
+    </row>
+    <row r="49" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C49" s="12">
         <v>800102</v>
       </c>
@@ -5343,55 +5529,53 @@
         <v>74</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
         <v>5000</v>
       </c>
-      <c r="N49" s="2">
+      <c r="P49" s="2">
         <v>311</v>
       </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
         <v>0.35</v>
       </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
       <c r="T49" s="2">
         <v>0</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
-      <c r="V49" s="2" t="str">
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
       <c r="Z49" s="2">
         <v>0</v>
       </c>
@@ -5401,55 +5585,57 @@
       <c r="AB49" s="2">
         <v>0</v>
       </c>
-      <c r="AD49" s="4"/>
-    </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="4"/>
+    </row>
+    <row r="50" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C50" s="12">
         <v>800201</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="H50" s="20"/>
+      <c r="I50" s="3"/>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
         <v>10000</v>
       </c>
-      <c r="N50" s="2">
+      <c r="P50" s="2">
         <v>101</v>
       </c>
-      <c r="P50" s="2">
+      <c r="R50" s="2">
         <v>6</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="S50" s="2">
         <v>2.4</v>
       </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
       <c r="T50" s="2">
         <v>0</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
       </c>
-      <c r="V50" s="2" t="str">
-        <f t="shared" ref="V50:V54" si="3">Q50&amp;","&amp;R50&amp;","&amp;S50&amp;","&amp;T50&amp;","&amp;U50</f>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2" t="str">
+        <f t="shared" ref="X50:X54" si="3">S50&amp;","&amp;T50&amp;","&amp;U50&amp;","&amp;V50&amp;","&amp;W50</f>
         <v>2.4,0,0,0,0</v>
       </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
       <c r="Z50" s="2">
         <v>0</v>
       </c>
@@ -5459,125 +5645,136 @@
       <c r="AB50" s="2">
         <v>0</v>
       </c>
-      <c r="AD50" s="4"/>
-    </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="4"/>
+    </row>
+    <row r="51" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C51" s="35">
         <v>800202</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
         <v>10000</v>
       </c>
-      <c r="N51" s="2">
+      <c r="P51" s="2">
         <v>321</v>
       </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
         <v>0.35</v>
       </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
       <c r="T51" s="2">
         <v>0</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
       </c>
-      <c r="V51" s="2" t="str">
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="X51" s="2">
+      <c r="Z51" s="2">
         <v>1</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="AA51" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="2">
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
         <v>1</v>
       </c>
-      <c r="AB51" s="2">
+      <c r="AD51" s="2">
         <v>6</v>
       </c>
-      <c r="AD51" s="4"/>
-    </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AE51" s="2">
+        <v>100101</v>
+      </c>
+      <c r="AF51" s="4"/>
+    </row>
+    <row r="52" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C52" s="12">
         <v>800301</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
         <v>10000</v>
       </c>
-      <c r="N52" s="2">
+      <c r="P52" s="2">
         <v>321</v>
       </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
         <v>0.5</v>
       </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
       <c r="T52" s="2">
         <v>0</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
-      <c r="V52" s="2" t="str">
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
       <c r="Z52" s="2">
         <v>0</v>
       </c>
@@ -5587,55 +5784,57 @@
       <c r="AB52" s="2">
         <v>0</v>
       </c>
-      <c r="AD52" s="4"/>
-    </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C53" s="12">
         <v>800501</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="H53" s="20"/>
+      <c r="I53" s="3"/>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
         <v>10000</v>
       </c>
-      <c r="N53" s="2">
+      <c r="P53" s="2">
         <v>101</v>
       </c>
-      <c r="P53" s="2">
+      <c r="R53" s="2">
         <v>1</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="S53" s="2">
         <v>3.6</v>
       </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
       <c r="T53" s="2">
         <v>0</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
-      <c r="V53" s="2" t="str">
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>3.6,0,0,0,0</v>
       </c>
-      <c r="X53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>0</v>
-      </c>
       <c r="Z53" s="2">
         <v>0</v>
       </c>
@@ -5645,36 +5844,38 @@
       <c r="AB53" s="2">
         <v>0</v>
       </c>
-      <c r="AD53" s="4"/>
-    </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="4"/>
+    </row>
+    <row r="54" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C54" s="12">
         <v>800502</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="H54" s="20"/>
+      <c r="I54" s="3"/>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
         <v>10000</v>
       </c>
-      <c r="N54" s="2">
+      <c r="P54" s="2">
         <v>501</v>
       </c>
-      <c r="P54" s="2">
+      <c r="R54" s="2">
         <v>800502</v>
       </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
       <c r="S54" s="2">
         <v>0</v>
       </c>
@@ -5684,185 +5885,182 @@
       <c r="U54" s="2">
         <v>0</v>
       </c>
-      <c r="V54" s="2" t="str">
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X54" s="2">
+      <c r="Z54" s="2">
         <v>1</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="AA54" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2">
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
         <v>1</v>
       </c>
-      <c r="AB54" s="2">
+      <c r="AD54" s="2">
         <v>6</v>
       </c>
-      <c r="AD54" s="4"/>
-    </row>
-    <row r="55" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AF54" s="4"/>
+    </row>
+    <row r="55" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
-        <v>900111</v>
+        <v>2101101</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="3"/>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P55" s="2">
+        <v>421</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
         <v>0.2</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N55" s="2">
-        <v>101</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>1</v>
-      </c>
-      <c r="R55" s="2">
-        <v>200</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
       <c r="T55" s="2">
         <v>0</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
-      <c r="V55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="4"/>
-    </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C56" s="3">
-        <v>2101101</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="3"/>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N56" s="2">
-        <v>421</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2" t="str">
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.2,0,0,0,0</v>
       </c>
-      <c r="X56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>0</v>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="4"/>
+      <c r="AJ55" s="4"/>
+    </row>
+    <row r="56" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
+        <v>2101102</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="3"/>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P56" s="2">
+        <v>501</v>
+      </c>
+      <c r="R56" s="2">
+        <v>100201</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="Z56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA56" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB56" s="2">
         <v>0</v>
       </c>
-      <c r="AD56" s="4"/>
-      <c r="AH56" s="4"/>
-    </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AC56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="4"/>
+      <c r="AJ56" s="4"/>
+    </row>
+    <row r="57" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
-        <v>2101102</v>
+        <v>2101201</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>167</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
+      <c r="H57" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
         <v>10000</v>
       </c>
-      <c r="N57" s="2">
-        <v>501</v>
-      </c>
       <c r="P57" s="2">
-        <v>100201</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="R57" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S57" s="2">
         <v>0</v>
@@ -5873,59 +6071,57 @@
       <c r="U57" s="2">
         <v>0</v>
       </c>
-      <c r="V57" s="2" t="str">
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X57" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>3</v>
-      </c>
       <c r="Z57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
         <v>1</v>
       </c>
-      <c r="AB57" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD57" s="4"/>
-      <c r="AH57" s="4"/>
-    </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AD57" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF57" s="4"/>
+      <c r="AJ57" s="4"/>
+    </row>
+    <row r="58" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
-        <v>2101201</v>
+        <v>2201101</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="3"/>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
         <v>10000</v>
       </c>
-      <c r="N58" s="2">
-        <v>701</v>
-      </c>
       <c r="P58" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="R58" s="2">
-        <v>0</v>
+        <v>200101</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
@@ -5936,183 +6132,192 @@
       <c r="U58" s="2">
         <v>0</v>
       </c>
-      <c r="V58" s="2" t="str">
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X58" s="2">
+      <c r="Z58" s="2">
         <v>1</v>
       </c>
-      <c r="Y58" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>0</v>
-      </c>
       <c r="AA58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="2">
         <v>1</v>
       </c>
-      <c r="AB58" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD58" s="4"/>
-      <c r="AH58" s="4"/>
-    </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C59" s="3">
-        <v>2201101</v>
-      </c>
-      <c r="D59" s="20" t="s">
+      <c r="AD58" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF58" s="4"/>
+      <c r="AJ58" s="4"/>
+    </row>
+    <row r="59" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C59" s="9">
+        <v>2201102</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="3"/>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
+      <c r="E59" s="21"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10">
         <v>10000</v>
       </c>
-      <c r="N59" s="2">
+      <c r="P59" s="10">
         <v>501</v>
       </c>
-      <c r="P59" s="2">
-        <v>200101</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2" t="str">
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10">
+        <v>200102</v>
+      </c>
+      <c r="S59" s="10">
+        <v>0</v>
+      </c>
+      <c r="T59" s="10">
+        <v>0</v>
+      </c>
+      <c r="U59" s="10">
+        <v>0</v>
+      </c>
+      <c r="V59" s="10">
+        <v>0</v>
+      </c>
+      <c r="W59" s="10">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X59" s="2">
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10">
         <v>1</v>
       </c>
-      <c r="Y59" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
+      <c r="AA59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
         <v>1</v>
       </c>
-      <c r="AB59" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="4"/>
-      <c r="AH59" s="4"/>
-    </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C60" s="9">
-        <v>2201102</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10">
-        <v>0</v>
-      </c>
-      <c r="M60" s="10">
+      <c r="AD59" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="11"/>
+      <c r="AJ59" s="4"/>
+    </row>
+    <row r="60" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C60" s="3">
+        <v>2201201</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="3"/>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
         <v>10000</v>
       </c>
-      <c r="N60" s="10">
+      <c r="P60" s="2">
         <v>501</v>
       </c>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10">
-        <v>200102</v>
-      </c>
-      <c r="Q60" s="10">
-        <v>0</v>
-      </c>
-      <c r="R60" s="10">
-        <v>0</v>
-      </c>
-      <c r="S60" s="10">
-        <v>0</v>
-      </c>
-      <c r="T60" s="10">
-        <v>0</v>
-      </c>
-      <c r="U60" s="10">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2" t="str">
+      <c r="R60" s="2">
+        <v>200201</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10">
+      <c r="Z60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
         <v>1</v>
       </c>
-      <c r="Y60" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z60" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="11"/>
-      <c r="AH60" s="4"/>
-    </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AD60" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="11"/>
+    </row>
+    <row r="61" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
-        <v>2201201</v>
+        <v>2201202</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>186</v>
       </c>
       <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="H61" s="20"/>
+      <c r="I61" s="3"/>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
         <v>10000</v>
       </c>
-      <c r="N61" s="2">
-        <v>501</v>
-      </c>
       <c r="P61" s="2">
-        <v>200201</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="S61" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
@@ -6120,384 +6325,933 @@
       <c r="U61" s="2">
         <v>0</v>
       </c>
-      <c r="V61" s="2" t="str">
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02,0,0,0,0</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>200101</v>
+      </c>
+      <c r="AF61" s="4"/>
+    </row>
+    <row r="62" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C62" s="9">
+        <v>2301101</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10">
+        <v>0</v>
+      </c>
+      <c r="O62" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P62" s="10">
+        <v>802</v>
+      </c>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10">
+        <v>4</v>
+      </c>
+      <c r="S62" s="10">
+        <v>3</v>
+      </c>
+      <c r="T62" s="10">
+        <v>0</v>
+      </c>
+      <c r="U62" s="10">
+        <v>0</v>
+      </c>
+      <c r="V62" s="10">
+        <v>0</v>
+      </c>
+      <c r="W62" s="10">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3,0,0,0,0</v>
+      </c>
+      <c r="Y62" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="11"/>
+    </row>
+    <row r="63" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C63" s="3">
+        <v>2301201</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="3"/>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P63" s="2">
+        <v>401</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.2,0,0,0,0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF63" s="4"/>
+    </row>
+    <row r="64" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C64" s="9">
+        <v>2801101</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P64" s="10">
+        <v>901</v>
+      </c>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10">
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <v>0</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0</v>
+      </c>
+      <c r="U64" s="10">
+        <v>0</v>
+      </c>
+      <c r="V64" s="10">
+        <v>0</v>
+      </c>
+      <c r="W64" s="10">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X61" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10">
         <v>1</v>
       </c>
-      <c r="AB61" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="11"/>
-    </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C62" s="3">
-        <v>2201202</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="3"/>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="AA64" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="11"/>
+    </row>
+    <row r="65" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
+        <v>2801201</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
         <v>10000</v>
       </c>
-      <c r="N62" s="2">
-        <v>102</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.02,0,0,0,0</v>
-      </c>
-      <c r="X62" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD62" s="4"/>
-    </row>
-    <row r="63" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C63" s="9">
-        <v>2301101</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10">
-        <v>0</v>
-      </c>
-      <c r="M63" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N63" s="10">
-        <v>802</v>
-      </c>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="10">
-        <v>3</v>
-      </c>
-      <c r="R63" s="10">
-        <v>0</v>
-      </c>
-      <c r="S63" s="10">
-        <v>0</v>
-      </c>
-      <c r="T63" s="10">
-        <v>0</v>
-      </c>
-      <c r="U63" s="10">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3,0,0,0,0</v>
-      </c>
-      <c r="W63" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="X63" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z63" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="11"/>
-    </row>
-    <row r="64" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C64" s="3">
-        <v>2301201</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="3"/>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N64" s="2">
-        <v>401</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.5,0,0,0,0</v>
-      </c>
-      <c r="X64" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD64" s="4"/>
-    </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C65" s="9">
-        <v>2801101</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10">
-        <v>0</v>
-      </c>
-      <c r="M65" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N65" s="10">
-        <v>901</v>
-      </c>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="10">
-        <v>0</v>
-      </c>
-      <c r="R65" s="10">
-        <v>0</v>
-      </c>
-      <c r="S65" s="10">
-        <v>0</v>
-      </c>
-      <c r="T65" s="10">
-        <v>0</v>
-      </c>
-      <c r="U65" s="10">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z65" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="11"/>
-    </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C66" s="3">
-        <v>2801201</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0</v>
-      </c>
-      <c r="M66" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N66" s="2">
+      <c r="P65" s="2">
         <v>321</v>
       </c>
-      <c r="P66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="2">
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
         <v>0.35</v>
       </c>
-      <c r="R66" s="2">
-        <v>0</v>
-      </c>
-      <c r="S66" s="2">
-        <v>0</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
-      <c r="U66" s="2">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2" t="str">
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="X65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="X66" s="2">
+      <c r="Z65" s="2">
         <v>1</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="AA65" s="2">
         <v>0.5</v>
       </c>
+      <c r="AB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF65" s="4"/>
+    </row>
+    <row r="66" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C66" s="3">
+        <v>400111</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P66" s="2">
+        <v>101</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1</v>
+      </c>
+      <c r="T66" s="2">
+        <v>200</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2" t="str">
+        <f t="shared" ref="X66:X73" si="4">S66&amp;","&amp;T66&amp;","&amp;U66&amp;","&amp;V66&amp;","&amp;W66</f>
+        <v>1,200,0,0,0</v>
+      </c>
       <c r="Z66" s="2">
         <v>0</v>
       </c>
       <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="4"/>
+    </row>
+    <row r="67" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C67" s="3">
+        <v>400201</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P67" s="2">
+        <v>101</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>8</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>8,0,0,0,0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="4"/>
+    </row>
+    <row r="68" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C68" s="3">
+        <v>500111</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P68" s="2">
+        <v>101</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2">
         <v>1</v>
       </c>
-      <c r="AB66" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD66" s="4"/>
-    </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C67" s="3"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="3"/>
-      <c r="AD67" s="4"/>
-    </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C68" s="9"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="11"/>
+      <c r="T68" s="2">
+        <v>200</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="4"/>
+    </row>
+    <row r="69" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C69" s="3">
+        <v>600111</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P69" s="2">
+        <v>101</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="2">
+        <v>200</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+      <c r="X69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="4"/>
+    </row>
+    <row r="70" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C70" s="3">
+        <v>900111</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P70" s="2">
+        <v>101</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1</v>
+      </c>
+      <c r="T70" s="2">
+        <v>200</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="4"/>
+    </row>
+    <row r="71" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C71" s="3">
+        <v>900211</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P71" s="2">
+        <v>101</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0</v>
+      </c>
+      <c r="S71" s="2">
+        <v>10</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+      <c r="X71" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10,0,0,0,0</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="4"/>
+    </row>
+    <row r="72" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C72" s="9">
+        <v>900311</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P72" s="10">
+        <v>902</v>
+      </c>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10">
+        <v>100402</v>
+      </c>
+      <c r="S72" s="10">
+        <v>0</v>
+      </c>
+      <c r="T72" s="10">
+        <v>0</v>
+      </c>
+      <c r="U72" s="10">
+        <v>0</v>
+      </c>
+      <c r="V72" s="10">
+        <v>0</v>
+      </c>
+      <c r="W72" s="10">
+        <v>0</v>
+      </c>
+      <c r="X72" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="11"/>
+    </row>
+    <row r="73" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C73" s="9">
+        <v>900312</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P73" s="2">
+        <v>903</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="4"/>
+    </row>
+    <row r="74" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C74" s="9"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="11"/>
+    </row>
+    <row r="75" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C75" s="9"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
